--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Plxna4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H2">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I2">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J2">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.59603</v>
+        <v>3.007031333333333</v>
       </c>
       <c r="N2">
-        <v>7.78809</v>
+        <v>9.021094</v>
       </c>
       <c r="O2">
-        <v>0.7224164495330042</v>
+        <v>0.8094673946682668</v>
       </c>
       <c r="P2">
-        <v>0.7224164495330041</v>
+        <v>0.8094673946682667</v>
       </c>
       <c r="Q2">
-        <v>2.084358544403334</v>
+        <v>6.515568336033555</v>
       </c>
       <c r="R2">
-        <v>18.75922689963</v>
+        <v>58.64011502430199</v>
       </c>
       <c r="S2">
-        <v>0.04483841245416331</v>
+        <v>0.3051598205688694</v>
       </c>
       <c r="T2">
-        <v>0.0448384124541633</v>
+        <v>0.3051598205688694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H3">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I3">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J3">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>0.788002</v>
       </c>
       <c r="O3">
-        <v>0.07309437963157928</v>
+        <v>0.07070782389956069</v>
       </c>
       <c r="P3">
-        <v>0.07309437963157928</v>
+        <v>0.07070782389956068</v>
       </c>
       <c r="Q3">
-        <v>0.2108962148237778</v>
+        <v>0.5691417116295554</v>
       </c>
       <c r="R3">
-        <v>1.898065933414</v>
+        <v>5.122275404666</v>
       </c>
       <c r="S3">
-        <v>0.004536768153771411</v>
+        <v>0.02665602962655197</v>
       </c>
       <c r="T3">
-        <v>0.004536768153771411</v>
+        <v>0.02665602962655197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H4">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I4">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J4">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05896966666666666</v>
+        <v>0.3605713333333333</v>
       </c>
       <c r="N4">
-        <v>0.176909</v>
+        <v>1.081714</v>
       </c>
       <c r="O4">
-        <v>0.01640992485582912</v>
+        <v>0.0970627524063256</v>
       </c>
       <c r="P4">
-        <v>0.01640992485582912</v>
+        <v>0.09706275240632559</v>
       </c>
       <c r="Q4">
-        <v>0.04734688296255556</v>
+        <v>0.7812779123068887</v>
       </c>
       <c r="R4">
-        <v>0.426121946663</v>
+        <v>7.031501210761999</v>
       </c>
       <c r="S4">
-        <v>0.001018519137407705</v>
+        <v>0.03659153204110654</v>
       </c>
       <c r="T4">
-        <v>0.001018519137407705</v>
+        <v>0.03659153204110654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H5">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I5">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J5">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.386897</v>
+        <v>0.01462266666666667</v>
       </c>
       <c r="N5">
-        <v>1.160691</v>
+        <v>0.043868</v>
       </c>
       <c r="O5">
-        <v>0.1076646868776442</v>
+        <v>0.003936298155113729</v>
       </c>
       <c r="P5">
-        <v>0.1076646868776442</v>
+        <v>0.003936298155113728</v>
       </c>
       <c r="Q5">
-        <v>0.3106405040596667</v>
+        <v>0.03168406756044444</v>
       </c>
       <c r="R5">
-        <v>2.795764536537</v>
+        <v>0.2851566080439999</v>
       </c>
       <c r="S5">
-        <v>0.006682452538406111</v>
+        <v>0.001483938756066078</v>
       </c>
       <c r="T5">
-        <v>0.00668245253840611</v>
+        <v>0.001483938756066078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H6">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I6">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J6">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01175366666666667</v>
+        <v>0.06993433333333333</v>
       </c>
       <c r="N6">
-        <v>0.035261</v>
+        <v>0.209803</v>
       </c>
       <c r="O6">
-        <v>0.003270779668311904</v>
+        <v>0.01882573087073324</v>
       </c>
       <c r="P6">
-        <v>0.003270779668311904</v>
+        <v>0.01882573087073323</v>
       </c>
       <c r="Q6">
-        <v>0.00943704639188889</v>
+        <v>0.1515321515998889</v>
       </c>
       <c r="R6">
-        <v>0.08493341752700001</v>
+        <v>1.363789364399</v>
       </c>
       <c r="S6">
-        <v>0.0002030083449916799</v>
+        <v>0.007097082220272898</v>
       </c>
       <c r="T6">
-        <v>0.0002030083449916799</v>
+        <v>0.007097082220272898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8029023333333334</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H7">
-        <v>2.408707</v>
+        <v>6.479788</v>
       </c>
       <c r="I7">
-        <v>0.06206726394886004</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J7">
-        <v>0.06206726394886004</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2772189999999999</v>
+        <v>3.007031333333333</v>
       </c>
       <c r="N7">
-        <v>0.8316569999999999</v>
+        <v>9.021094</v>
       </c>
       <c r="O7">
-        <v>0.07714377943363128</v>
+        <v>0.8094673946682668</v>
       </c>
       <c r="P7">
-        <v>0.07714377943363128</v>
+        <v>0.8094673946682667</v>
       </c>
       <c r="Q7">
-        <v>0.2225797819443333</v>
+        <v>6.494975183119111</v>
       </c>
       <c r="R7">
-        <v>2.003218037499</v>
+        <v>58.454776648072</v>
       </c>
       <c r="S7">
-        <v>0.004788103320119834</v>
+        <v>0.3041953302091314</v>
       </c>
       <c r="T7">
-        <v>0.004788103320119834</v>
+        <v>0.3041953302091314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +918,10 @@
         <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.59603</v>
+        <v>0.2626673333333333</v>
       </c>
       <c r="N8">
-        <v>7.78809</v>
+        <v>0.788002</v>
       </c>
       <c r="O8">
-        <v>0.7224164495330042</v>
+        <v>0.07070782389956069</v>
       </c>
       <c r="P8">
-        <v>0.7224164495330041</v>
+        <v>0.07070782389956068</v>
       </c>
       <c r="Q8">
-        <v>5.607241347213334</v>
+        <v>0.5673428781751111</v>
       </c>
       <c r="R8">
-        <v>50.46517212492</v>
+        <v>5.106085903576</v>
       </c>
       <c r="S8">
-        <v>0.1206221458066664</v>
+        <v>0.02657178038444738</v>
       </c>
       <c r="T8">
-        <v>0.1206221458066663</v>
+        <v>0.02657178038444738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +980,10 @@
         <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2626673333333333</v>
+        <v>0.3605713333333333</v>
       </c>
       <c r="N9">
-        <v>0.788002</v>
+        <v>1.081714</v>
       </c>
       <c r="O9">
-        <v>0.07309437963157928</v>
+        <v>0.0970627524063256</v>
       </c>
       <c r="P9">
-        <v>0.07309437963157928</v>
+        <v>0.09706275240632559</v>
       </c>
       <c r="Q9">
-        <v>0.5673428781751111</v>
+        <v>0.7788085996257778</v>
       </c>
       <c r="R9">
-        <v>5.106085903576</v>
+        <v>7.009277396631999</v>
       </c>
       <c r="S9">
-        <v>0.01220459601005441</v>
+        <v>0.03647588057743776</v>
       </c>
       <c r="T9">
-        <v>0.01220459601005441</v>
+        <v>0.03647588057743776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1042,40 @@
         <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05896966666666666</v>
+        <v>0.01462266666666667</v>
       </c>
       <c r="N10">
-        <v>0.176909</v>
+        <v>0.043868</v>
       </c>
       <c r="O10">
-        <v>0.01640992485582912</v>
+        <v>0.003936298155113729</v>
       </c>
       <c r="P10">
-        <v>0.01640992485582912</v>
+        <v>0.003936298155113728</v>
       </c>
       <c r="Q10">
-        <v>0.1273703128102222</v>
+        <v>0.03158392666488889</v>
       </c>
       <c r="R10">
-        <v>1.146332815292</v>
+        <v>0.284255339984</v>
       </c>
       <c r="S10">
-        <v>0.002739971314213309</v>
+        <v>0.001479248608385433</v>
       </c>
       <c r="T10">
-        <v>0.002739971314213309</v>
+        <v>0.001479248608385432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1104,10 @@
         <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.386897</v>
+        <v>0.06993433333333333</v>
       </c>
       <c r="N11">
-        <v>1.160691</v>
+        <v>0.209803</v>
       </c>
       <c r="O11">
-        <v>0.1076646868776442</v>
+        <v>0.01882573087073324</v>
       </c>
       <c r="P11">
-        <v>0.1076646868776442</v>
+        <v>0.01882573087073323</v>
       </c>
       <c r="Q11">
-        <v>0.8356701792786667</v>
+        <v>0.1510532179737778</v>
       </c>
       <c r="R11">
-        <v>7.521031613508</v>
+        <v>1.359478961764</v>
       </c>
       <c r="S11">
-        <v>0.01797681319020265</v>
+        <v>0.007074651130324814</v>
       </c>
       <c r="T11">
-        <v>0.01797681319020265</v>
+        <v>0.007074651130324813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1154,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.159929333333333</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H12">
-        <v>6.479788</v>
+        <v>4.262672</v>
       </c>
       <c r="I12">
-        <v>0.1669703754456876</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J12">
-        <v>0.1669703754456876</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01175366666666667</v>
+        <v>3.007031333333333</v>
       </c>
       <c r="N12">
-        <v>0.035261</v>
+        <v>9.021094</v>
       </c>
       <c r="O12">
-        <v>0.003270779668311904</v>
+        <v>0.8094673946682668</v>
       </c>
       <c r="P12">
-        <v>0.003270779668311904</v>
+        <v>0.8094673946682667</v>
       </c>
       <c r="Q12">
-        <v>0.02538708940755556</v>
+        <v>4.272662755907556</v>
       </c>
       <c r="R12">
-        <v>0.228483804668</v>
+        <v>38.453964803168</v>
       </c>
       <c r="S12">
-        <v>0.0005461233092181603</v>
+        <v>0.2001122438902659</v>
       </c>
       <c r="T12">
-        <v>0.0005461233092181603</v>
+        <v>0.2001122438902659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1216,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.159929333333333</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H13">
-        <v>6.479788</v>
+        <v>4.262672</v>
       </c>
       <c r="I13">
-        <v>0.1669703754456876</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J13">
-        <v>0.1669703754456876</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2772189999999999</v>
+        <v>0.2626673333333333</v>
       </c>
       <c r="N13">
-        <v>0.8316569999999999</v>
+        <v>0.788002</v>
       </c>
       <c r="O13">
-        <v>0.07714377943363128</v>
+        <v>0.07070782389956069</v>
       </c>
       <c r="P13">
-        <v>0.07714377943363128</v>
+        <v>0.07070782389956068</v>
       </c>
       <c r="Q13">
-        <v>0.5987734498573332</v>
+        <v>0.3732215623715555</v>
       </c>
       <c r="R13">
-        <v>5.388961048715999</v>
+        <v>3.358994061344</v>
       </c>
       <c r="S13">
-        <v>0.01288072581533273</v>
+        <v>0.01748001388856133</v>
       </c>
       <c r="T13">
-        <v>0.01288072581533273</v>
+        <v>0.01748001388856133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H14">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.59603</v>
+        <v>0.3605713333333333</v>
       </c>
       <c r="N14">
-        <v>7.78809</v>
+        <v>1.081714</v>
       </c>
       <c r="O14">
-        <v>0.7224164495330042</v>
+        <v>0.0970627524063256</v>
       </c>
       <c r="P14">
-        <v>0.7224164495330041</v>
+        <v>0.09706275240632559</v>
       </c>
       <c r="Q14">
-        <v>25.89065284181667</v>
+        <v>0.5123324422008889</v>
       </c>
       <c r="R14">
-        <v>233.01587557635</v>
+        <v>4.610991979807999</v>
       </c>
       <c r="S14">
-        <v>0.5569558912721745</v>
+        <v>0.02399533978778129</v>
       </c>
       <c r="T14">
-        <v>0.5569558912721745</v>
+        <v>0.02399533978778129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H15">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.2626673333333333</v>
+        <v>0.01462266666666667</v>
       </c>
       <c r="N15">
-        <v>0.788002</v>
+        <v>0.043868</v>
       </c>
       <c r="O15">
-        <v>0.07309437963157928</v>
+        <v>0.003936298155113729</v>
       </c>
       <c r="P15">
-        <v>0.07309437963157928</v>
+        <v>0.003936298155113728</v>
       </c>
       <c r="Q15">
-        <v>2.619626406558889</v>
+        <v>0.02077721058844444</v>
       </c>
       <c r="R15">
-        <v>23.57663765903</v>
+        <v>0.186994895296</v>
       </c>
       <c r="S15">
-        <v>0.05635301546775345</v>
+        <v>0.0009731107906622175</v>
       </c>
       <c r="T15">
-        <v>0.05635301546775345</v>
+        <v>0.0009731107906622174</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,232 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H16">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05896966666666666</v>
+        <v>0.06993433333333333</v>
       </c>
       <c r="N16">
-        <v>0.176909</v>
+        <v>0.209803</v>
       </c>
       <c r="O16">
-        <v>0.01640992485582912</v>
+        <v>0.01882573087073324</v>
       </c>
       <c r="P16">
-        <v>0.01640992485582912</v>
+        <v>0.01882573087073323</v>
       </c>
       <c r="Q16">
-        <v>0.5881146087927778</v>
+        <v>0.09936904151288889</v>
       </c>
       <c r="R16">
-        <v>5.293031479134999</v>
+        <v>0.8943213736160001</v>
       </c>
       <c r="S16">
-        <v>0.0126514344042081</v>
+        <v>0.004653997520135525</v>
       </c>
       <c r="T16">
-        <v>0.0126514344042081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>9.973171666666667</v>
-      </c>
-      <c r="H17">
-        <v>29.919515</v>
-      </c>
-      <c r="I17">
-        <v>0.7709623606054523</v>
-      </c>
-      <c r="J17">
-        <v>0.7709623606054523</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.386897</v>
-      </c>
-      <c r="N17">
-        <v>1.160691</v>
-      </c>
-      <c r="O17">
-        <v>0.1076646868776442</v>
-      </c>
-      <c r="P17">
-        <v>0.1076646868776442</v>
-      </c>
-      <c r="Q17">
-        <v>3.858590198318334</v>
-      </c>
-      <c r="R17">
-        <v>34.72731178486499</v>
-      </c>
-      <c r="S17">
-        <v>0.08300542114903543</v>
-      </c>
-      <c r="T17">
-        <v>0.08300542114903543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>9.973171666666667</v>
-      </c>
-      <c r="H18">
-        <v>29.919515</v>
-      </c>
-      <c r="I18">
-        <v>0.7709623606054523</v>
-      </c>
-      <c r="J18">
-        <v>0.7709623606054523</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.01175366666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.035261</v>
-      </c>
-      <c r="O18">
-        <v>0.003270779668311904</v>
-      </c>
-      <c r="P18">
-        <v>0.003270779668311904</v>
-      </c>
-      <c r="Q18">
-        <v>0.1172213353794445</v>
-      </c>
-      <c r="R18">
-        <v>1.054992018415</v>
-      </c>
-      <c r="S18">
-        <v>0.002521648014102064</v>
-      </c>
-      <c r="T18">
-        <v>0.002521648014102064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>9.973171666666667</v>
-      </c>
-      <c r="H19">
-        <v>29.919515</v>
-      </c>
-      <c r="I19">
-        <v>0.7709623606054523</v>
-      </c>
-      <c r="J19">
-        <v>0.7709623606054523</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2772189999999999</v>
-      </c>
-      <c r="N19">
-        <v>0.8316569999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.07714377943363128</v>
-      </c>
-      <c r="P19">
-        <v>0.07714377943363128</v>
-      </c>
-      <c r="Q19">
-        <v>2.764752676261666</v>
-      </c>
-      <c r="R19">
-        <v>24.882774086355</v>
-      </c>
-      <c r="S19">
-        <v>0.05947495029817872</v>
-      </c>
-      <c r="T19">
-        <v>0.05947495029817872</v>
+        <v>0.004653997520135525</v>
       </c>
     </row>
   </sheetData>
